--- a/Data/Exports/фактура1.pdf_1-2.xlsx
+++ b/Data/Exports/фактура1.pdf_1-2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -92,9 +92,6 @@
   </x:si>
   <x:si>
     <x:t>table</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.9941964</x:t>
   </x:si>
   <x:si>
     <x:t>1.00</x:t>
@@ -139,20 +136,77 @@
     <x:t>LineTotal - Confidence</x:t>
   </x:si>
   <x:si>
-    <x:t>алсдј cv дсаа садсдас асдассад адсдас адсасд асдасд адс дас дас адс асд дса</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ден4.00 ден4.00 ден498.00 ден6.00 ден231,132,323.00 ден34,234.00 ден4,543.00 ден32.00 ден343.00 ден32.00 ден34.00 ден32.00 ден3.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 1 1 1 1 1 1 1 1 1 1 1 1</x:t>
+    <x:t>алсдј cv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ден4.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>дсаа</x:t>
+  </x:si>
+  <x:si>
+    <x:t>садсдас</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ден498.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>асдассад</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ден6.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>адсдас</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ден231,132,323.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>адсасд</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ден34,234.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>асдасд</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ден4,543.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>адс</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ден32.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>дас</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ден343.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ден34.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>асд</x:t>
+  </x:si>
+  <x:si>
+    <x:t>дса</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ден3.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ден132.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ден23.00</x:t>
   </x:si>
   <x:si>
     <x:t>Key,Value
 "Value",""</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1111111000000.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -198,7 +252,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="8">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -607,7 +673,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N2" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -676,25 +742,25 @@
     </x:row>
     <x:row r="2" spans="1:14">
       <x:c r="A2" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
         <x:v>20</x:v>
@@ -706,7 +772,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="K2" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
         <x:v>18</x:v>
@@ -715,7 +781,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N2" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -740,54 +806,470 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="C1" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="D1" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="E1" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="F1" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+      <x:c r="G1" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+      <x:c r="H1" s="0" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="D2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="B3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>25</x:v>
+      <x:c r="B4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="A9" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8">
+      <x:c r="A10" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8">
+      <x:c r="A11" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8">
+      <x:c r="A12" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8">
+      <x:c r="A13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8">
+      <x:c r="A14" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:8">
+      <x:c r="A15" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:8">
+      <x:c r="A16" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8">
+      <x:c r="A17" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:8">
+      <x:c r="A18" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>18</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -812,54 +1294,470 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="C1" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="D1" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="E1" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="F1" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+      <x:c r="G1" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+      <x:c r="H1" s="0" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
+      <x:c r="B5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
         <x:v>25</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G7" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G8" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="A9" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8">
+      <x:c r="A10" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8">
+      <x:c r="A11" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8">
+      <x:c r="A12" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8">
+      <x:c r="A13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G13" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8">
+      <x:c r="A14" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G14" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:8">
+      <x:c r="A15" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C15" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G15" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:8">
+      <x:c r="A16" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C16" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G16" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8">
+      <x:c r="A17" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C17" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G17" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:8">
+      <x:c r="A18" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C18" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G18" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>18</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Exports/фактура1.pdf_1-2.xlsx
+++ b/Data/Exports/фактура1.pdf_1-2.xlsx
@@ -252,7 +252,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="12">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/фактура1.pdf_1-2.xlsx
+++ b/Data/Exports/фактура1.pdf_1-2.xlsx
@@ -252,7 +252,67 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -786,7 +846,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H18"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1274,7 +1334,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H18"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>

--- a/Data/Exports/фактура1.pdf_1-2.xlsx
+++ b/Data/Exports/фактура1.pdf_1-2.xlsx
@@ -252,7 +252,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="20">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -834,7 +846,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H18"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1322,7 +1334,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H18"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>

--- a/Data/Exports/фактура1.pdf_1-2.xlsx
+++ b/Data/Exports/фактура1.pdf_1-2.xlsx
@@ -252,7 +252,31 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="16">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -822,7 +846,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H18"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1310,7 +1334,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H18"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>

--- a/Data/Exports/фактура1.pdf_1-2.xlsx
+++ b/Data/Exports/фактура1.pdf_1-2.xlsx
@@ -252,79 +252,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="48">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="24">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -918,7 +846,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H18"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1406,7 +1334,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H18"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>

--- a/Data/Exports/фактура1.pdf_1-2.xlsx
+++ b/Data/Exports/фактура1.pdf_1-2.xlsx
@@ -252,7 +252,43 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="12">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/фактура1.pdf_1-2.xlsx
+++ b/Data/Exports/фактура1.pdf_1-2.xlsx
@@ -252,67 +252,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="24">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -846,7 +786,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H2"/>
+  <x:dimension ref="A1:H18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1334,7 +1274,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H2"/>
+  <x:dimension ref="A1:H18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>

--- a/Data/Exports/фактура1.pdf_1-2.xlsx
+++ b/Data/Exports/фактура1.pdf_1-2.xlsx
@@ -252,7 +252,43 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="16">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/фактура1.pdf_1-2.xlsx
+++ b/Data/Exports/фактура1.pdf_1-2.xlsx
@@ -252,7 +252,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="16">
+  <x:cellStyleXfs count="20">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/фактура1.pdf_1-2.xlsx
+++ b/Data/Exports/фактура1.pdf_1-2.xlsx
@@ -252,7 +252,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="20">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/фактура1.pdf_1-2.xlsx
+++ b/Data/Exports/фактура1.pdf_1-2.xlsx
@@ -252,7 +252,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="24">
+  <x:cellStyleXfs count="28">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/фактура1.pdf_1-2.xlsx
+++ b/Data/Exports/фактура1.pdf_1-2.xlsx
@@ -252,7 +252,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="28">
+  <x:cellStyleXfs count="32">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/фактура1.pdf_1-2.xlsx
+++ b/Data/Exports/фактура1.pdf_1-2.xlsx
@@ -252,7 +252,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="32">
+  <x:cellStyleXfs count="36">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/фактура1.pdf_1-2.xlsx
+++ b/Data/Exports/фактура1.pdf_1-2.xlsx
@@ -252,7 +252,43 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="36">
+  <x:cellStyleXfs count="48">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
